--- a/Dataset/Folds/Fold_1/Excel/23.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="486">
   <si>
     <t>Doi</t>
   </si>
@@ -1578,6 +1578,112 @@
   </si>
   <si>
     <t>[Ke%Wang%NULL%0,                           Wei%Zhao%NULL%1,                           Ji%Li%NULL%1,                           Weiwei%Shu%shuweiwei361@163.com%1,                           Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,                            Ying%Chen%NULL%1,                            Ruzheng%Lin%NULL%1,                            Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                            Yuanyuan%Xing%NULL%1,                            Yu%Xiao%NULL%0,                            Liping%Deng%NULL%1,                            Qiu%Zhao%NULL%1,                            Hongling%Wang%NULL%1,                            Yong%Xiong%NULL%3,                            Zhenshun%Cheng%NULL%4,                            Shicheng%Gao%NULL%1,                            Ke%Liang%NULL%1,                            Mingqi%Luo%NULL%1,                            Tielong%Chen%NULL%1,                            Shihui%Song%NULL%1,                            Zhiyong%Ma%NULL%1,                            Xiaoping%Chen%NULL%1,                            Ruiying%Zheng%NULL%1,                            Qian%Cao%NULL%1,                            Fan%Wang%fanndywang@foxmail.com%0,                            Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,                            Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                            Yongzhen%Fan%NULL%2,                            Ming%Chen%NULL%2,                            Xiaoyan%Wu%NULL%2,                            Lin%Zhang%NULL%2,                            Tao%He%NULL%2,                            Hairong%Wang%NULL%2,                            Jing%Wan%NULL%2,                            Xinghuan%Wang%NULL%0,                            Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                            Yeming%Wang%NULL%9,                            Xingwang%Li%NULL%4,                            Lili%Ren%NULL%3,                            Jianping%Zhao%NULL%10,                            Yi%Hu%NULL%5,                            Li%Zhang%NULL%5,                            Guohui%Fan%NULL%9,                            Jiuyang%Xu%NULL%9,                            Xiaoying%Gu%NULL%9,                            Zhenshun%Cheng%NULL%0,                            Ting%Yu%NULL%15,                            Jiaan%Xia%NULL%3,                            Yuan%Wei%NULL%10,                            Wenjuan%Wu%NULL%3,                            Xuelei%Xie%NULL%3,                            Wen%Yin%NULL%3,                            Hui%Li%NULL%0,                            Min%Liu%NULL%4,                            Yan%Xiao%NULL%4,                            Hong%Gao%NULL%5,                            Li%Guo%NULL%4,                            Jungang%Xie%NULL%5,                            Guangfa%Wang%NULL%3,                            Rongmeng%Jiang%NULL%3,                            Zhancheng%Gao%NULL%3,                            Qi%Jin%NULL%4,                            Jianwei%Wang%wangjw28@163.com%3,                            Bin%Cao%caobin_ben@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                            Bijan J.%Ghassemieh%NULL%4,                            Michelle%Nichols%NULL%4,                            Richard%Kim%NULL%4,                            Keith R.%Jerome%NULL%4,                            Arun K.%Nalla%NULL%4,                            Alexander L.%Greninger%NULL%4,                            Sudhakar%Pipavath%NULL%4,                            Mark M.%Wurfel%NULL%4,                            Laura%Evans%NULL%4,                            Patricia A.%Kritek%NULL%4,                            T. Eoin%West%NULL%4,                            Andrew%Luks%NULL%4,                            Anthony%Gerbino%NULL%4,                            Chris R.%Dale%NULL%4,                            Jason D.%Goldman%NULL%4,                            Shane%O’Mahony%NULL%4,                            Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                            Min%Zhou%NULL%4,                            Xuan%Dong%NULL%1,                            Jieming%Qu%NULL%4,                            Fengyun%Gong%NULL%1,                            Yang%Han%NULL%1,                            Yang%Qiu%NULL%1,                            Jingli%Wang%NULL%1,                            Ying%Liu%NULL%8,                            Yuan%Wei%NULL%0,                            Jia'an%Xia%NULL%6,                            Ting%Yu%NULL%0,                            Xinxin%Zhang%NULL%1,                            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%6,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%0,                            Zhibo%Liu%NULL%6,                            Jie%Xiang%NULL%9,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%6,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%6,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%6,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%6,                            Yi%Zhang%NULL%7,                            Hua%Chen%NULL%6,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,                            Wei%Zhao%NULL%1,                            Ji%Li%NULL%1,                            Weiwei%Shu%shuweiwei361@163.com%1,                            Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,                             Ying%Chen%NULL%1,                             Ruzheng%Lin%NULL%1,                             Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                             Yuanyuan%Xing%NULL%1,                             Yu%Xiao%NULL%0,                             Liping%Deng%NULL%1,                             Qiu%Zhao%NULL%1,                             Hongling%Wang%NULL%1,                             Yong%Xiong%NULL%3,                             Zhenshun%Cheng%NULL%4,                             Shicheng%Gao%NULL%1,                             Ke%Liang%NULL%1,                             Mingqi%Luo%NULL%1,                             Tielong%Chen%NULL%1,                             Shihui%Song%NULL%1,                             Zhiyong%Ma%NULL%1,                             Xiaoping%Chen%NULL%1,                             Ruiying%Zheng%NULL%1,                             Qian%Cao%NULL%1,                             Fan%Wang%fanndywang@foxmail.com%0,                             Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,                             Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                             Yongzhen%Fan%NULL%2,                             Ming%Chen%NULL%2,                             Xiaoyan%Wu%NULL%2,                             Lin%Zhang%NULL%2,                             Tao%He%NULL%2,                             Hairong%Wang%NULL%2,                             Jing%Wan%NULL%2,                             Xinghuan%Wang%NULL%0,                             Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                             Yeming%Wang%NULL%9,                             Xingwang%Li%NULL%4,                             Lili%Ren%NULL%3,                             Jianping%Zhao%NULL%10,                             Yi%Hu%NULL%5,                             Li%Zhang%NULL%5,                             Guohui%Fan%NULL%9,                             Jiuyang%Xu%NULL%9,                             Xiaoying%Gu%NULL%9,                             Zhenshun%Cheng%NULL%0,                             Ting%Yu%NULL%15,                             Jiaan%Xia%NULL%3,                             Yuan%Wei%NULL%10,                             Wenjuan%Wu%NULL%3,                             Xuelei%Xie%NULL%3,                             Wen%Yin%NULL%3,                             Hui%Li%NULL%0,                             Min%Liu%NULL%4,                             Yan%Xiao%NULL%4,                             Hong%Gao%NULL%5,                             Li%Guo%NULL%4,                             Jungang%Xie%NULL%5,                             Guangfa%Wang%NULL%3,                             Rongmeng%Jiang%NULL%3,                             Zhancheng%Gao%NULL%3,                             Qi%Jin%NULL%4,                             Jianwei%Wang%wangjw28@163.com%3,                             Bin%Cao%caobin_ben@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                             Bijan J.%Ghassemieh%NULL%4,                             Michelle%Nichols%NULL%4,                             Richard%Kim%NULL%4,                             Keith R.%Jerome%NULL%4,                             Arun K.%Nalla%NULL%4,                             Alexander L.%Greninger%NULL%4,                             Sudhakar%Pipavath%NULL%4,                             Mark M.%Wurfel%NULL%4,                             Laura%Evans%NULL%4,                             Patricia A.%Kritek%NULL%4,                             T. Eoin%West%NULL%4,                             Andrew%Luks%NULL%4,                             Anthony%Gerbino%NULL%4,                             Chris R.%Dale%NULL%4,                             Jason D.%Goldman%NULL%4,                             Shane%O’Mahony%NULL%4,                             Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                             Min%Zhou%NULL%4,                             Xuan%Dong%NULL%1,                             Jieming%Qu%NULL%4,                             Fengyun%Gong%NULL%1,                             Yang%Han%NULL%1,                             Yang%Qiu%NULL%1,                             Jingli%Wang%NULL%1,                             Ying%Liu%NULL%8,                             Yuan%Wei%NULL%0,                             Jia'an%Xia%NULL%6,                             Ting%Yu%NULL%0,                             Xinxin%Zhang%NULL%1,                             Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                             Ting%Yu%NULL%0,                             Ronghui%Du%NULL%6,                             Guohui%Fan%NULL%0,                             Ying%Liu%NULL%0,                             Zhibo%Liu%NULL%6,                             Jie%Xiang%NULL%9,                             Yeming%Wang%NULL%0,                             Bin%Song%NULL%6,                             Xiaoying%Gu%NULL%0,                             Lulu%Guan%NULL%6,                             Yuan%Wei%NULL%0,                             Hui%Li%NULL%0,                             Xudong%Wu%NULL%6,                             Jiuyang%Xu%NULL%0,                             Shengjin%Tu%NULL%6,                             Yi%Zhang%NULL%7,                             Hua%Chen%NULL%6,                             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,                             Wei%Zhao%NULL%1,                             Ji%Li%NULL%1,                             Weiwei%Shu%shuweiwei361@163.com%1,                             Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0, Ying%Chen%NULL%0, Ruzheng%Lin%NULL%0, Kunyuan%Han%NULL%0]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0, Yuanyuan%Xing%NULL%0, Yu%Xiao%NULL%0, Liping%Deng%NULL%0, Qiu%Zhao%NULL%0, Hongling%Wang%NULL%0, Yong%Xiong%NULL%0, Zhenshun%Cheng%NULL%0, Shicheng%Gao%NULL%0, Ke%Liang%NULL%0, Mingqi%Luo%NULL%0, Tielong%Chen%NULL%0, Shihui%Song%NULL%0, Zhiyong%Ma%NULL%0, Xiaoping%Chen%NULL%0, Ruiying%Zheng%NULL%0, Qian%Cao%NULL%0, Fan%Wang%fanndywang@foxmail.com%0, Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0, Travis%Eastin%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This case series study evaluates the association of underlying cardiovascular disease and myocardial injury on fatal outcomes in patients with coronavirus disease 2019 (COVID-19).
+</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0, Yongzhen%Fan%NULL%0, Ming%Chen%NULL%0, Xiaoyan%Wu%NULL%0, Lin%Zhang%NULL%0, Tao%He%NULL%0, Hairong%Wang%NULL%0, Jing%Wan%NULL%0, Xinghuan%Wang%NULL%0, Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%0, Xingwang%Li%NULL%0, Lili%Ren%NULL%0, Jianping%Zhao%NULL%0, Yi%Hu%NULL%0, Li%Zhang%NULL%0, Guohui%Fan%NULL%0, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%0, Zhenshun%Cheng%NULL%0, Ting%Yu%NULL%0, Jiaan%Xia%NULL%0, Yuan%Wei%NULL%0, Wenjuan%Wu%NULL%0, Xuelei%Xie%NULL%0, Wen%Yin%NULL%0, Hui%Li%NULL%0, Min%Liu%NULL%0, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Li%Guo%NULL%0, Jungang%Xie%NULL%0, Guangfa%Wang%NULL%0, Rongmeng%Jiang%NULL%0, Zhancheng%Gao%NULL%0, Qi%Jin%NULL%0, Jianwei%Wang%wangjw28@163.com%0, Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0, Bijan J.%Ghassemieh%NULL%0, Michelle%Nichols%NULL%0, Richard%Kim%NULL%0, Keith R.%Jerome%NULL%0, Arun K.%Nalla%NULL%0, Alexander L.%Greninger%NULL%0, Sudhakar%Pipavath%NULL%0, Mark M.%Wurfel%NULL%0, Laura%Evans%NULL%0, Patricia A.%Kritek%NULL%0, T. Eoin%West%NULL%0, Andrew%Luks%NULL%0, Anthony%Gerbino%NULL%0, Chris R.%Dale%NULL%0, Jason D.%Goldman%NULL%0, Shane%O’Mahony%NULL%0, Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0, Min%Zhou%NULL%0, Xuan%Dong%NULL%0, Jieming%Qu%NULL%0, Fengyun%Gong%NULL%0, Yang%Han%NULL%0, Yang%Qiu%NULL%0, Jingli%Wang%NULL%0, Ying%Liu%NULL%0, Yuan%Wei%NULL%0, Jia'an%Xia%NULL%0, Ting%Yu%NULL%0, Xinxin%Zhang%NULL%0, Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0, Wei%Zhao%NULL%3, Ji%Li%NULL%1, Weiwei%Shu%shuweiwei361@163.com%1, Jun%Duan%duanjun412589@163.com%2]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
   </si>
 </sst>
 </file>
@@ -1909,25 +2015,25 @@
         <v>43977.0</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>438</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
         <v>40</v>
@@ -1947,7 +2053,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1959,10 +2065,10 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4">
@@ -1979,7 +2085,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1991,10 +2097,10 @@
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5">
@@ -2011,7 +2117,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -2023,10 +2129,10 @@
         <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6">
@@ -2040,10 +2146,10 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>475</v>
       </c>
       <c r="E6" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -2055,10 +2161,10 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7">
@@ -2075,7 +2181,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -2087,10 +2193,10 @@
         <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8">
@@ -2101,25 +2207,25 @@
         <v>44013.0</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>444</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
@@ -2133,25 +2239,25 @@
         <v>43907.0</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>445</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
         <v>40</v>
@@ -2165,25 +2271,25 @@
         <v>43949.0</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>446</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
         <v>40</v>
@@ -2203,7 +2309,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -2215,10 +2321,10 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12">
@@ -2229,28 +2335,28 @@
         <v>43949.0</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>257</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>368</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
         <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>369</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -2261,28 +2367,28 @@
         <v>44013.0</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>368</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
         <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>369</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -2299,7 +2405,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -2311,10 +2417,10 @@
         <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15">
@@ -2331,7 +2437,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -2343,10 +2449,10 @@
         <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16">
@@ -2360,10 +2466,10 @@
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>
@@ -2375,10 +2481,10 @@
         <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
